--- a/1. Drone Constrution/Budget Estimates Build 2.xlsx
+++ b/1. Drone Constrution/Budget Estimates Build 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/23910712_sun_ac_za/Documents/Desktop/Nico Masters_Offline/1. Drone Constrution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/23910712_sun_ac_za/Documents/Desktop/Nico_Masters/1. Drone Constrution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{69F6BF99-CF95-46BA-A15E-00DBB7CA68F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2508B70-B0CB-4BB5-A4D5-3836630D03CA}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{69F6BF99-CF95-46BA-A15E-00DBB7CA68F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DBAE2F-865F-4B18-870E-56B8FD52BD2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67760CD1-8CF1-47AB-9F3D-23FC97384BB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Budget For Drone Construction</t>
   </si>
@@ -66,166 +66,19 @@
     <t>https://boyztoyz.co.za/product-category/fpv/props/5-inch-props/</t>
   </si>
   <si>
-    <t>ToDo:</t>
-  </si>
-  <si>
-    <t>Balance Charger</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Power Distribustion Unit (PDU)</t>
-  </si>
-  <si>
-    <t>Flight Controller/Autopilot</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
-    <t>Electronic Speed Controller (ESC)</t>
-  </si>
-  <si>
-    <t>Motors</t>
-  </si>
-  <si>
-    <t>Propellers</t>
-  </si>
-  <si>
-    <t>Communications Antenna + remote controller</t>
-  </si>
-  <si>
-    <t>LiDAR</t>
-  </si>
-  <si>
-    <t>RGBD Cam + LED</t>
-  </si>
-  <si>
-    <t>Inertisl Measurement Unit (IMU)</t>
-  </si>
-  <si>
-    <t>Proximity  Sensor</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>All in one (AIO) 4in1</t>
-  </si>
-  <si>
-    <t>Voltage sensor and regulator</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Microcontroller Units (MCU) = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F4, G4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F7 or H7</t>
-    </r>
-  </si>
-  <si>
-    <t>Support up to 6s input voltage</t>
-  </si>
-  <si>
-    <t>Provides soft mounting solutions</t>
-  </si>
-  <si>
-    <t>Estimate: 1.9kg , Thrust-to-weight = 4:1 =&gt;7.6kg = 1.9kg/motor(18.829N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouster OSO-64 LiDAR = </t>
-  </si>
-  <si>
-    <t>Without cap: 430g</t>
-  </si>
-  <si>
-    <t>With radial cap: 500g</t>
-  </si>
-  <si>
-    <t>With halo cap: 445g</t>
-  </si>
-  <si>
     <t>Sensors</t>
   </si>
   <si>
-    <t>Ouster OSO-64 LiDAR</t>
-  </si>
-  <si>
     <t>Mass(g)</t>
   </si>
   <si>
-    <t>Flir Blackfly S: 36g</t>
-  </si>
-  <si>
-    <t>Flir Blackfly S</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Rand</t>
-  </si>
-  <si>
-    <t>Grams</t>
-  </si>
-  <si>
-    <t>Intel RealSense Depth Camera D435: 72g</t>
-  </si>
-  <si>
     <t>Import?</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Drone Only Totals:</t>
-  </si>
-  <si>
-    <t>Firmware = ArduPilot/PX4</t>
-  </si>
-  <si>
-    <t>Estimate: 6s; &gt;5000mAh
-BUT: 4s is lighter</t>
-  </si>
-  <si>
-    <t>Battery Charger (Lab has one) (Not On Board)</t>
-  </si>
-  <si>
-    <t>Power Supply regulator: PM02D Power Module</t>
-  </si>
-  <si>
     <t>Coms Antenna (Only Temporary)</t>
-  </si>
-  <si>
-    <t>Microcontroller - Khadas VIM3 (US$105)</t>
   </si>
   <si>
     <t>https://cmchobbies.co.za/shop/batteries-and-chargers/lipo-lithium-polymer/lipo-6s-6cell/xpower-lipo-3800mah-6s-35c</t>
@@ -319,14 +172,68 @@
     <t>https://holybro.com/collections/fpv-esc/products/tekko32-f4-4in1-60a-esc</t>
   </si>
   <si>
-    <t>_Power Disribution Board (PDB) _ Sort Connection to Microcontroller</t>
+    <t>Power to MCU: BLITZ BEC Module</t>
+  </si>
+  <si>
+    <t>https://shop.iflight.com/electronics-cat27/BLITZ-PSM-BXN-5D2UD6-BEC-Pro1790</t>
+  </si>
+  <si>
+    <t>https://www.khadas.com/product-page/vim4</t>
+  </si>
+  <si>
+    <t>Microcontroller - Khadas VIM4 (Active cooling kit with NPU) (US$209)</t>
+  </si>
+  <si>
+    <t>Battery Charger: EV-PEAK C1-XR Balance Charger (Same as lab)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.rc-king.co.za/chargers/2278-ev-peak-c1-xr-balance-chargerdischarger-2690300075235.html</t>
+  </si>
+  <si>
+    <t>Excl. Charger</t>
+  </si>
+  <si>
+    <t>XT60 Charge Cable</t>
+  </si>
+  <si>
+    <t>https://www.rc-king.co.za/charger-accessories/2232-xt60-charge-cable-2119939411974.html</t>
+  </si>
+  <si>
+    <t>Total Mass:</t>
+  </si>
+  <si>
+    <t>Excl.Sensors:</t>
+  </si>
+  <si>
+    <t>Ouster OSO-64 LiDAR(450g)</t>
+  </si>
+  <si>
+    <t>Flir Blackfly S (72g)</t>
+  </si>
+  <si>
+    <t>Intel Realsense Depth Camera D435i</t>
+  </si>
+  <si>
+    <t>https://store.intelrealsense.com/buy-intel-realsense-depth-camera-d435i.html?_ga=2.191646506.1002803594.1709538406-905892404.1709538406</t>
+  </si>
+  <si>
+    <t>Drone Only Excl. VIM4</t>
+  </si>
+  <si>
+    <t>Drone, Sensors and Charger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,24 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -466,6 +355,36 @@
     <font>
       <sz val="10"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,42 +516,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -641,21 +558,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,6 +594,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -992,37 +898,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4290E-614B-4946-943E-0A6BDB010861}">
-  <dimension ref="A1:J82"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="126.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.109375" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1042,33 +951,33 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="13"/>
       <c r="I4" t="s">
         <v>7</v>
@@ -1079,7 +988,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>575</v>
@@ -1088,20 +997,20 @@
         <v>123.5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="25">
         <f t="shared" ref="G5:G14" si="0">B5*F5</f>
         <v>1150</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H21" si="1">G5*1.1</f>
+        <f t="shared" ref="H5:H22" si="1">G5*1.1</f>
         <v>1265</v>
       </c>
       <c r="I5" t="s">
@@ -1115,7 +1024,7 @@
       <c r="A6" s="2"/>
       <c r="C6" s="16"/>
       <c r="D6" s="10"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="25"/>
       <c r="I6" t="s">
         <v>11</v>
       </c>
@@ -1124,206 +1033,206 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="10"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="25"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="31">
+    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="25">
         <v>60</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="26">
         <f>4.2*4</f>
         <v>16.8</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>48</v>
+      <c r="D8" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="31">
+        <v>28</v>
+      </c>
+      <c r="F8" s="25">
         <v>3</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="25">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="25">
         <f t="shared" si="1"/>
         <v>198.00000000000003</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="25">
         <v>60</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="s">
-        <v>48</v>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31">
+        <v>27</v>
+      </c>
+      <c r="F9" s="25">
         <v>2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="25">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="31">
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="25">
         <v>60</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
-        <v>48</v>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="31">
+        <v>29</v>
+      </c>
+      <c r="F10" s="25">
         <v>2</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="25">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="41">
+    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="35">
         <v>60</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43" t="s">
-        <v>48</v>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="41">
+        <v>42</v>
+      </c>
+      <c r="F11" s="35">
         <v>2</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="35">
         <f t="shared" ref="H11:H12" si="2">G11*1.1</f>
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="41">
+    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="35">
         <v>60</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43" t="s">
-        <v>48</v>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="41">
+        <v>43</v>
+      </c>
+      <c r="F12" s="35">
         <v>2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="35">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="41">
+    <row r="13" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="35">
         <v>60</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43" t="s">
-        <v>48</v>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="41">
+        <v>38</v>
+      </c>
+      <c r="F13" s="35">
         <v>2</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="35">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="41">
+    <row r="14" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="35">
         <v>60</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43" t="s">
-        <v>48</v>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="41">
+        <v>44</v>
+      </c>
+      <c r="F14" s="35">
         <v>2</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="35">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1900</v>
@@ -1332,15 +1241,15 @@
         <v>139</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="25">
         <f>B15*1.5</f>
         <v>2850</v>
       </c>
@@ -1349,30 +1258,30 @@
         <v>3135.0000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="31">
+    <row r="16" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="25">
         <v>1540</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="26">
         <v>16</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>48</v>
+      <c r="D16" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="31">
+        <v>47</v>
+      </c>
+      <c r="F16" s="25">
         <v>1</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="25">
         <f>B16*1.5</f>
         <v>2310</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="25">
         <f t="shared" si="1"/>
         <v>2541</v>
       </c>
@@ -1380,682 +1289,320 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="D17" s="13"/>
-      <c r="G17" s="31"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="10"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="E18" s="8"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="25">
         <v>1720</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="26">
         <v>570</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>70</v>
+      <c r="D19" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="31">
+        <v>31</v>
+      </c>
+      <c r="F19" s="25">
         <v>2</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="25">
         <f>B19*F19</f>
         <v>3440</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="25">
         <f>G19</f>
         <v>3440</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="39">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16">
-        <v>20</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="31">
+    <row r="20" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="25">
         <v>4000</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C20" s="26">
         <v>60</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="25">
         <v>1</v>
       </c>
-      <c r="G21" s="31">
-        <f t="shared" ref="G21" si="3">B21*F21</f>
+      <c r="G20" s="25">
+        <f t="shared" ref="G20:G22" si="3">B20*F20</f>
         <v>4000</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H20" s="25">
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="39">
-        <v>2000</v>
-      </c>
-      <c r="C22" s="16">
-        <v>29</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="30">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="31">
+        <v>50</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="25">
+        <v>140</v>
+      </c>
+      <c r="C22" s="26">
+        <v>2</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="25">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
       <c r="C23" s="16"/>
       <c r="D23" s="13"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="E23" s="8"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="41">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="G26" s="31"/>
+      <c r="D24" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="41">
+        <f>B24</f>
+        <v>1000</v>
+      </c>
+      <c r="H24" s="41">
+        <f>G24</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="41">
+        <v>75</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="41">
+        <v>1</v>
+      </c>
+      <c r="G25" s="41">
+        <f>B25</f>
+        <v>75</v>
+      </c>
+      <c r="H25" s="41">
+        <f>G25</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="8"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="19">
-        <f>SUM(B5:B6)+SUM(B8:B17)+SUM(B19:B25)</f>
-        <v>12180</v>
-      </c>
-      <c r="C27" s="20">
-        <f>SUM(C5:C6)+SUM(C8:C17)+SUM(C19:C25)</f>
-        <v>974.3</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="31"/>
-      <c r="H27"/>
+      <c r="A27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="8"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
+      <c r="A28" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="10"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="37">
-        <v>450</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="37">
-        <v>72</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="D31" s="10"/>
-      <c r="G31" s="31"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="31">
+        <v>6355</v>
+      </c>
+      <c r="C29" s="31">
+        <v>70</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25">
+        <f>B29*F29</f>
+        <v>6355</v>
+      </c>
+      <c r="H29">
+        <f>G29*1.1</f>
+        <v>6990.5000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="D32" s="10"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="D33" s="13"/>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="D34" s="10"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="11"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="19">
-        <f>(SUM(B5:B6)+SUM(B8:B17)+SUM(B19:B25)+SUM(B29:B35))</f>
-        <v>12180</v>
-      </c>
-      <c r="C37" s="19">
-        <f>SUM(C5:C6)+SUM(C8:C17)+SUM(C19:C25)+SUM(C29:C35)</f>
-        <v>1496.3</v>
-      </c>
-      <c r="H37" s="19">
-        <f>SUM(H4:H36)</f>
-        <v>15771</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="34" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="18">
+        <f>SUM(H4:H33)</f>
+        <v>28544.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="39">
+        <f>SUM(C5:C6,C8:C17,C19:C27,C29:C32)</f>
+        <v>1047.3</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="39">
+        <f>SUM(H5:H22)</f>
+        <v>20479</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="12">
+        <f>SUM(C5:C6,C8:C17,C19:C22)</f>
+        <v>977.3</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="45">
+        <f>SUM(H5:H20,H22)</f>
+        <v>16079</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A28:C28"/>
   </mergeCells>
   <hyperlinks>
@@ -2068,10 +1615,15 @@
     <hyperlink ref="E10" r:id="rId7" xr:uid="{CDE31175-25BE-45B7-97F3-8A7D25AEBA60}"/>
     <hyperlink ref="E19" r:id="rId8" xr:uid="{7ADC7254-FB11-4864-B533-30C238F0C3F6}"/>
     <hyperlink ref="J6" r:id="rId9" xr:uid="{FD49C00E-318E-49E7-A8D5-7C7B8C386FBD}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{4CA477EB-2FB1-4F22-9148-61976EA47EF3}"/>
+    <hyperlink ref="E20" r:id="rId10" xr:uid="{4CA477EB-2FB1-4F22-9148-61976EA47EF3}"/>
     <hyperlink ref="E16" r:id="rId11" xr:uid="{614A4A52-1669-4567-9E83-F94DC1A8C017}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{CD5D111F-1745-4D3A-8FC1-00560F4FD84D}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{BE1C0E7E-6BDB-450B-B4A9-1D1FBE792E79}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{AC21DBFC-8398-4B0B-B7A8-2B331286145F}"/>
+    <hyperlink ref="E25" r:id="rId15" xr:uid="{3320CF2C-F870-4D57-B66C-CF7F6F6259E2}"/>
+    <hyperlink ref="E29" r:id="rId16" xr:uid="{26A79A89-C194-4577-BD20-E41F776912BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>
--- a/1. Drone Constrution/Budget Estimates Build 2.xlsx
+++ b/1. Drone Constrution/Budget Estimates Build 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/23910712_sun_ac_za/Documents/Desktop/Nico_Masters/1. Drone Constrution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\nicoe\OneDrive\OneDrive - Stellenbosch University\Desktop\Nico_Masters\1. Drone Constrution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{69F6BF99-CF95-46BA-A15E-00DBB7CA68F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DBAE2F-865F-4B18-870E-56B8FD52BD2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ABCF5D-E6D8-4E32-94D2-53CBC27F0A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67760CD1-8CF1-47AB-9F3D-23FC97384BB6}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{67760CD1-8CF1-47AB-9F3D-23FC97384BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Microcontroller - Khadas VIM4 (Active cooling kit with NPU) (US$209)</t>
   </si>
   <si>
-    <t>Battery Charger: EV-PEAK C1-XR Balance Charger (Same as lab)</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>Drone, Sensors and Charger</t>
+  </si>
+  <si>
+    <t>Battery Charger: EV-PEAK C1-XR Balance Charger (Same as lab) (Wouldn't buy yet, can just use labs)</t>
   </si>
 </sst>
 </file>
@@ -901,10 +901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,15 +913,15 @@
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="8" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -932,8 +932,9 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
@@ -942,8 +943,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -968,25 +970,26 @@
       <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="13"/>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1013,26 +1016,26 @@
         <f t="shared" ref="H5:H22" si="1">G5*1.1</f>
         <v>1265</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="C6" s="16"/>
       <c r="D6" s="10"/>
       <c r="G6" s="25"/>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>2</v>
       </c>
@@ -1040,9 +1043,9 @@
       <c r="C7" s="48"/>
       <c r="D7" s="10"/>
       <c r="G7" s="25"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>34</v>
       </c>
@@ -1070,11 +1073,11 @@
         <f t="shared" si="1"/>
         <v>198.00000000000003</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>36</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>41</v>
       </c>
@@ -1151,8 +1154,9 @@
         <f t="shared" ref="H11:H12" si="2">G11*1.1</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>40</v>
       </c>
@@ -1177,8 +1181,9 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>37</v>
       </c>
@@ -1203,8 +1208,9 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>39</v>
       </c>
@@ -1229,8 +1235,9 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>3135.0000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
@@ -1286,12 +1293,12 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="D17" s="13"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1308,7 @@
       <c r="E18" s="8"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>51</v>
       </c>
@@ -1384,8 +1391,9 @@
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>48</v>
       </c>
@@ -1413,28 +1421,28 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
       <c r="C23" s="16"/>
       <c r="D23" s="13"/>
       <c r="E23" s="8"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B24" s="41">
         <v>1000</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F24" s="41">
         <v>1</v>
@@ -1448,35 +1456,35 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="25">
+        <v>75</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="41">
-        <v>75</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="41">
+      <c r="F25" s="25">
         <v>1</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="25">
         <f>B25</f>
         <v>75</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="25">
         <f>G25</f>
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
@@ -1485,14 +1493,14 @@
       <c r="E26" s="8"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="8"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>13</v>
       </c>
@@ -1501,9 +1509,9 @@
       <c r="D28" s="10"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="31">
         <v>6355</v>
@@ -1515,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1529,9 +1537,9 @@
         <v>6990.5000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="32" t="s">
@@ -1539,9 +1547,9 @@
       </c>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="32" t="s">
@@ -1549,53 +1557,54 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="17"/>
       <c r="D32" s="11"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="34" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="18">
         <f>SUM(H4:H33)</f>
         <v>28544.5</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="39">
         <f>SUM(C5:C6,C8:C17,C19:C27,C29:C32)</f>
         <v>1047.3</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="39">
         <f>SUM(H5:H22)</f>
         <v>20479</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="12">
         <f>SUM(C5:C6,C8:C17,C19:C22)</f>
         <v>977.3</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="45">
         <f>SUM(H5:H20,H22)</f>
         <v>16079</v>
       </c>
+      <c r="I36" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1606,15 +1615,15 @@
     <mergeCell ref="A28:C28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{71F7C51C-9A74-4DEE-8BDB-6F8D7CD200B2}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{463A7E05-1A33-4A04-BC87-A46F2A74B797}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{71F7C51C-9A74-4DEE-8BDB-6F8D7CD200B2}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{463A7E05-1A33-4A04-BC87-A46F2A74B797}"/>
     <hyperlink ref="E15" r:id="rId3" xr:uid="{B3D19B71-6359-4A1A-A843-D7789631F074}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{7361C77E-744C-45A6-8252-B81F8540937C}"/>
     <hyperlink ref="E9" r:id="rId5" xr:uid="{1C50069A-5BE9-42D5-AA81-0E00E3594242}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{57A13856-D50A-4964-96B5-68BD89B31806}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{CDE31175-25BE-45B7-97F3-8A7D25AEBA60}"/>
     <hyperlink ref="E19" r:id="rId8" xr:uid="{7ADC7254-FB11-4864-B533-30C238F0C3F6}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{FD49C00E-318E-49E7-A8D5-7C7B8C386FBD}"/>
+    <hyperlink ref="K6" r:id="rId9" xr:uid="{FD49C00E-318E-49E7-A8D5-7C7B8C386FBD}"/>
     <hyperlink ref="E20" r:id="rId10" xr:uid="{4CA477EB-2FB1-4F22-9148-61976EA47EF3}"/>
     <hyperlink ref="E16" r:id="rId11" xr:uid="{614A4A52-1669-4567-9E83-F94DC1A8C017}"/>
     <hyperlink ref="E22" r:id="rId12" xr:uid="{CD5D111F-1745-4D3A-8FC1-00560F4FD84D}"/>

--- a/1. Drone Constrution/Budget Estimates Build 2.xlsx
+++ b/1. Drone Constrution/Budget Estimates Build 2.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\nicoe\OneDrive\OneDrive - Stellenbosch University\Desktop\Nico_Masters\1. Drone Constrution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/23910712_sun_ac_za/Documents/Desktop/Nico_Masters/1. Drone Constrution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ABCF5D-E6D8-4E32-94D2-53CBC27F0A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{15ABCF5D-E6D8-4E32-94D2-53CBC27F0A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4341E582-D238-4CFF-9DC8-A1E392092DC2}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{67760CD1-8CF1-47AB-9F3D-23FC97384BB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{67760CD1-8CF1-47AB-9F3D-23FC97384BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Budget For Drone Construction</t>
   </si>
@@ -227,6 +238,24 @@
   </si>
   <si>
     <t>Battery Charger: EV-PEAK C1-XR Balance Charger (Same as lab) (Wouldn't buy yet, can just use labs)</t>
+  </si>
+  <si>
+    <t>"1567"</t>
+  </si>
+  <si>
+    <t>"691"</t>
+  </si>
+  <si>
+    <t>"72"</t>
+  </si>
+  <si>
+    <t>"2362"</t>
+  </si>
+  <si>
+    <t>"1428"</t>
+  </si>
+  <si>
+    <t>"148"</t>
   </si>
 </sst>
 </file>
@@ -581,30 +610,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,7 +651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -748,7 +757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -890,7 +899,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,25 +912,25 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="89.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="9" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="89.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -934,7 +943,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
@@ -945,7 +954,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -975,7 +984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
@@ -989,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1012,10 +1021,13 @@
         <f t="shared" ref="G5:G14" si="0">B5*F5</f>
         <v>1150</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="33">
         <f t="shared" ref="H5:H22" si="1">G5*1.1</f>
         <v>1265</v>
       </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="C6" s="16"/>
       <c r="D6" s="10"/>
@@ -1035,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="47" t="s">
         <v>2</v>
       </c>
@@ -1045,11 +1057,11 @@
       <c r="G7" s="25"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="33">
         <v>60</v>
       </c>
       <c r="C8" s="26">
@@ -1077,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>36</v>
       </c>
@@ -1129,11 +1141,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>60</v>
       </c>
       <c r="C11" s="36"/>
@@ -1156,7 +1168,7 @@
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
         <v>40</v>
       </c>
@@ -1183,7 +1195,7 @@
       </c>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1222,7 @@
       </c>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>39</v>
       </c>
@@ -1237,7 +1249,7 @@
       </c>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1260,12 +1272,15 @@
         <f>B15*1.5</f>
         <v>2850</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="33">
         <f t="shared" si="1"/>
         <v>3135.0000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
@@ -1288,17 +1303,20 @@
         <f>B16*1.5</f>
         <v>2310</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="33">
         <f t="shared" si="1"/>
         <v>2541</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="D17" s="13"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1326,7 @@
       <c r="E18" s="8"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1363,8 +1381,11 @@
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>51</v>
       </c>
@@ -1391,9 +1412,11 @@
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>48</v>
       </c>
@@ -1420,15 +1443,18 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
       <c r="C23" s="16"/>
       <c r="D23" s="13"/>
       <c r="E23" s="8"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>66</v>
       </c>
@@ -1456,7 +1482,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>56</v>
       </c>
@@ -1484,7 +1510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>17</v>
       </c>
@@ -1493,14 +1519,14 @@
       <c r="E26" s="8"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="8"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="47" t="s">
         <v>13</v>
       </c>
@@ -1509,7 +1535,7 @@
       <c r="D28" s="10"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
         <v>62</v>
       </c>
@@ -1537,7 +1563,7 @@
         <v>6990.5000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>60</v>
       </c>
@@ -1547,7 +1573,7 @@
       </c>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>61</v>
       </c>
@@ -1557,14 +1583,14 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="17"/>
       <c r="D32" s="11"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="34" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G34" s="18" t="s">
         <v>65</v>
       </c>
@@ -1573,7 +1599,7 @@
         <v>28544.5</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" s="39" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="39" t="s">
         <v>58</v>
       </c>
@@ -1589,7 +1615,7 @@
         <v>20479</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -1631,8 +1657,10 @@
     <hyperlink ref="E24" r:id="rId14" xr:uid="{AC21DBFC-8398-4B0B-B7A8-2B331286145F}"/>
     <hyperlink ref="E25" r:id="rId15" xr:uid="{3320CF2C-F870-4D57-B66C-CF7F6F6259E2}"/>
     <hyperlink ref="E29" r:id="rId16" xr:uid="{26A79A89-C194-4577-BD20-E41F776912BD}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{1F2895A5-2A8F-44F9-85BC-95FF9686D53E}"/>
+    <hyperlink ref="E14" r:id="rId18" xr:uid="{5A4AC70E-435B-4593-A64E-202D5B5D0D97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId17"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>